--- a/docs/PRI_view_comments.xlsx
+++ b/docs/PRI_view_comments.xlsx
@@ -394,117 +394,156 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>PRI.PRI_PROJ_RES_TAG_MAX_SUM_ALL_V</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Project Resource Implementations Maximum Versions Summary with Detailed Project Information (View)
+This view returns all projects and summary information of all implemented resources including highest version implemented as well as detailed project information</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>PRI.PRI_PROJ_RES_TAG_MAX_SUM_V</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Project Resource Implementations Maximum Versions Summary (View)
 This view returns all projects and summary information of all implemented resources including highest version implemented</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>PRI.PRI_PROJ_RES_TAG_MAX_V</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Project Resource Implementations Maximum Versions (View)
 This view returns all projects and associated implemented resources including highest version implemented and highest resource version as well as the resource's project information</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>PRI.PRI_PROJ_TAGS_V</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>PIFSC Resource Inventory Project Tags (View)
 This view returns all projects and the corresponding tags.</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>PRI.PRI_PROJ_V</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Projects (View)
 This view returns all project records and any associated project resources and associated reference table information</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>PRI.PRI_RES_PROJ_TAG_MAX_SUM_ALL_V</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Resource and Installed Project Maximum Versions Summary with Detailed Resource Information (View)
+This view returns the projects and associated resource (including highest version) and a summary of all associated projects that tag the resource (as implemented) as well as detailed resource and related project information</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>PRI.PRI_RES_PROJ_TAG_MAX_SUM_V</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>Resource and Installed Project Maximum Versions Summary (View)
 This view returns the projects and associated resource (including highest version) and a summary of all associated projects that tag the resource (as implemented).</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>PRI.PRI_RES_PROJ_TAG_MAX_V</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>Resource and Implemented Project Maximum Versions (View)
 This view returns all project resources (including highest version) and all associated projects that tag the resource (as implemented) including the highest version number for the associated tagged project.</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>PRI.PRI_RES_TAG_MAX_VERS_V</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>Project Resource Tag Maximum Versions (View)
 This view returns the highest version number of each defined project resource that is associated with each project based on the tag IDs associated with the project resources.  This view can be used to identify all instances of resources implemented for a given project (identified TAG_PROJ_ID) and it can be used to identify which project resources are installed in a given project (identified by RES_PROJ_ID)</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>PRI.PRI_RES_TAG_VERS_V</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>Project Resource Tag Versions (View)
 This view returns all defined project resources and associated tag names that match the corresponding resource tag naming convention based on a regular expression.  The view also provides the parsed version number based on the naming convention and a score for the parsed version number that is used to determine the highest version number</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>PRI.PRI_RES_V</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>Project Resources (View)
 This view returns all project resources and associated reference table values</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>PRI.PRI_VC_USERS_V</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>PIFSC Resource Inventory Version Control Users (View)
+This query returns the version control users and the associated data source information</t>
         </is>
       </c>
     </row>
